--- a/structureNomenclature.xlsx
+++ b/structureNomenclature.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garcilazo\Javascript_NodeJS\FAPOWebpage\02_Editing_Dynamic\PYOINV_2d0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garcilazo\Javascript_NodeJS\FAPOWebpage\02_Editing_Dynamic\PYTHON_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6CAC60-499B-4E6A-A9C7-A643C7D57DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990FF742-349E-44C4-8730-2C81A92FFBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{19D8FD90-F66F-4773-BFF2-5BB213987018}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{19D8FD90-F66F-4773-BFF2-5BB213987018}"/>
   </bookViews>
   <sheets>
     <sheet name="structures" sheetId="2" r:id="rId1"/>
@@ -43,172 +43,172 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
+    <t>prs</t>
+  </si>
+  <si>
+    <t>epi</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>pti</t>
+  </si>
+  <si>
+    <t>ste</t>
+  </si>
+  <si>
+    <t>ti2</t>
+  </si>
+  <si>
+    <t>ped</t>
+  </si>
+  <si>
+    <t>ral</t>
+  </si>
+  <si>
+    <t>qli</t>
+  </si>
+  <si>
+    <t>le1</t>
+  </si>
+  <si>
+    <t>qla</t>
+  </si>
+  <si>
+    <t>cox</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>abd</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>le2</t>
+  </si>
+  <si>
+    <t>le3</t>
+  </si>
+  <si>
+    <t>le4</t>
+  </si>
+  <si>
+    <t>dorsal</t>
+  </si>
+  <si>
+    <t>lateral</t>
+  </si>
+  <si>
+    <t>ventral</t>
+  </si>
+  <si>
+    <t>anterior</t>
+  </si>
+  <si>
+    <t>posterior</t>
+  </si>
+  <si>
+    <t>prolateral</t>
+  </si>
+  <si>
+    <t>retrolateral</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>AcrView</t>
+  </si>
+  <si>
+    <t>Tibia 2</t>
+  </si>
+  <si>
+    <t>Leg 1</t>
+  </si>
+  <si>
+    <t>Leg 2</t>
+  </si>
+  <si>
+    <t>Leg 3</t>
+  </si>
+  <si>
+    <t>Leg 4</t>
+  </si>
+  <si>
+    <t>AcrStr</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Habitus</t>
+  </si>
+  <si>
+    <t>Prosoma</t>
+  </si>
+  <si>
+    <t>Epigynum</t>
+  </si>
+  <si>
+    <t>Palp</t>
+  </si>
+  <si>
+    <t>Palpal</t>
+  </si>
+  <si>
+    <t>Sternum</t>
+  </si>
+  <si>
+    <t>Rallum</t>
+  </si>
+  <si>
+    <t>Chelicerae</t>
+  </si>
+  <si>
+    <t>Chela</t>
+  </si>
+  <si>
+    <t>Coxa</t>
+  </si>
+  <si>
+    <t>Genitalia</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Spinnerets</t>
+  </si>
+  <si>
     <t>hab</t>
-  </si>
-  <si>
-    <t>prs</t>
-  </si>
-  <si>
-    <t>epi</t>
-  </si>
-  <si>
-    <t>pal</t>
-  </si>
-  <si>
-    <t>pti</t>
-  </si>
-  <si>
-    <t>ste</t>
-  </si>
-  <si>
-    <t>ti2</t>
-  </si>
-  <si>
-    <t>ped</t>
-  </si>
-  <si>
-    <t>ral</t>
-  </si>
-  <si>
-    <t>qli</t>
-  </si>
-  <si>
-    <t>le1</t>
-  </si>
-  <si>
-    <t>qla</t>
-  </si>
-  <si>
-    <t>cox</t>
-  </si>
-  <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>abd</t>
-  </si>
-  <si>
-    <t>spi</t>
-  </si>
-  <si>
-    <t>che</t>
-  </si>
-  <si>
-    <t>le2</t>
-  </si>
-  <si>
-    <t>le3</t>
-  </si>
-  <si>
-    <t>le4</t>
-  </si>
-  <si>
-    <t>dorsal</t>
-  </si>
-  <si>
-    <t>lateral</t>
-  </si>
-  <si>
-    <t>ventral</t>
-  </si>
-  <si>
-    <t>anterior</t>
-  </si>
-  <si>
-    <t>posterior</t>
-  </si>
-  <si>
-    <t>prolateral</t>
-  </si>
-  <si>
-    <t>retrolateral</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>AcrView</t>
-  </si>
-  <si>
-    <t>Tibia 2</t>
-  </si>
-  <si>
-    <t>Leg 1</t>
-  </si>
-  <si>
-    <t>Leg 2</t>
-  </si>
-  <si>
-    <t>Leg 3</t>
-  </si>
-  <si>
-    <t>Leg 4</t>
-  </si>
-  <si>
-    <t>AcrStr</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Habitus</t>
-  </si>
-  <si>
-    <t>Prosoma</t>
-  </si>
-  <si>
-    <t>Epigynum</t>
-  </si>
-  <si>
-    <t>Palp</t>
-  </si>
-  <si>
-    <t>Palpal</t>
-  </si>
-  <si>
-    <t>Sternum</t>
-  </si>
-  <si>
-    <t>Rallum</t>
-  </si>
-  <si>
-    <t>Chelicerae</t>
-  </si>
-  <si>
-    <t>Chela</t>
-  </si>
-  <si>
-    <t>Coxa</t>
-  </si>
-  <si>
-    <t>Genitalia</t>
-  </si>
-  <si>
-    <t>Abdomen</t>
-  </si>
-  <si>
-    <t>Spinnerets</t>
   </si>
 </sst>
 </file>
@@ -1057,178 +1057,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F138B4E-D7F7-4A6E-B2E7-221B16DA7406}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1240,85 +1240,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF75B923-EE83-4264-AB77-9DDD134F8636}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
